--- a/Excel_Tarzan/GalaTarzanEntreKidsCortesia.xlsx
+++ b/Excel_Tarzan/GalaTarzanEntreKidsCortesia.xlsx
@@ -953,7 +953,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1436,7 +1436,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
